--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>792486.1592779035</v>
+        <v>872688.8824299383</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240766</v>
+        <v>5739665.97424076</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>233.393427652503</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>107.9681293265172</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269518</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>110.6905642034424</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>82.13372940691106</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2278100992613</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>81.6969531757846</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838597</v>
       </c>
       <c r="T6" t="n">
         <v>192.0665623188214</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>144.9005218828499</v>
       </c>
       <c r="T7" t="n">
-        <v>120.33325546674</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>74.95765882727953</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,16 +1192,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>63.6397011992986</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>151.7222027933561</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472234</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>256.8241943842555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>121.0389903687767</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>195.0465954186446</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>168.1158122680976</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>100.9068926882547</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>243.2391485592445</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>40.31924309660637</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>147.8726780845235</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>315.9399385984244</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>179.6989004166827</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>127.3165365479905</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486474</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>85.9501402817929</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>242.3977510333373</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>163.6898441249714</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491561</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>225.7508892923946</v>
+        <v>229.796569204138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>83.65430578147914</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>101.1471539705512</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>21.83291915277596</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>184.1739595194691</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>77.31354443380542</v>
+        <v>19.07191717959512</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>225.7402727320845</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>78.44407739678171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>165.1257093195483</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>229.7965692041367</v>
+        <v>267.3172025050105</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.6898441249714</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6.38006817584838</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>85.17289288835083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>80.51180339461152</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>97.27989568773768</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>13.02719212039669</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>228.3086203505601</v>
+        <v>174.7869190180884</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>62.40697986446754</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>109.902238481464</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>110.0923443600226</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3986,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>328.04236596265</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>29.00134239365532</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.5112152512263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1565.850280418408</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="C2" t="n">
-        <v>1565.850280418408</v>
+        <v>1731.050109329748</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1372.784410722998</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>986.9961581247533</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>576.0102533351458</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>160.3055030594346</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400154</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664334</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664334</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.98961239422</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X2" t="n">
-        <v>1955.98961239422</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="Y2" t="n">
-        <v>1565.850280418408</v>
+        <v>2100.01262627016</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966375</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155105</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542593</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488038</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756888</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182509</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310612</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100993</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.759829269319</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460311</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292608</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400154</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
         <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087192</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881659</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.7887257848004</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C4" t="n">
-        <v>494.7887257848004</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312195</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1328.00872152381</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1038.890384027648</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>784.205895821761</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>494.7887257848004</v>
+        <v>487.4892962053433</v>
       </c>
       <c r="X4" t="n">
-        <v>494.7887257848004</v>
+        <v>487.4892962053433</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.7887257848004</v>
+        <v>487.4892962053433</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.739488336033</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.776971395621</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.511272788871</v>
+        <v>437.0350391662474</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.723020190627</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F5" t="n">
-        <v>651.7371154010191</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G5" t="n">
-        <v>236.0323651253079</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816094</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872926</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2271.071512080945</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1940.008624737375</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1587.239969467261</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1213.774211206181</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.339328400155</v>
+        <v>823.6348792303692</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4650,25 +4652,25 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042426</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
         <v>2426.617474780096</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1387.498550072049</v>
       </c>
       <c r="T7" t="n">
-        <v>1514.8973771788</v>
+        <v>1164.520069266785</v>
       </c>
       <c r="U7" t="n">
-        <v>1225.779039682638</v>
+        <v>875.4017317706222</v>
       </c>
       <c r="V7" t="n">
-        <v>971.0945514767509</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>620.7172435647353</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.968004989121</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.005488048709</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>852.7397894419585</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>466.9515368437143</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2486.624521503915</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2277.878880109739</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="W8" t="n">
-        <v>1579.968004989121</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="X8" t="n">
-        <v>1579.968004989121</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.968004989121</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>777.6069060507734</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1483.191369778178</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1260.212888972913</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>971.0945514767509</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>971.0945514767509</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6773814397902</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1491.569348694473</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C11" t="n">
-        <v>1491.569348694473</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D11" t="n">
-        <v>1491.569348694473</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3093.053546703159</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265601</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995486</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734407</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y11" t="n">
-        <v>1878.169188758595</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="12">
@@ -5109,19 +5111,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
@@ -5224,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
         <v>1278.358723975039</v>
@@ -5267,37 +5269,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3128.589058560035</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3128.589058560035</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2303.170539913434</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296685</v>
@@ -5537,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3113.388998905705</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3113.388998905705</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X17" t="n">
-        <v>3079.909711953368</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y17" t="n">
-        <v>2689.770379977556</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>593.9942835760974</v>
+        <v>363.7915515140952</v>
       </c>
       <c r="C19" t="n">
-        <v>425.0581006481905</v>
+        <v>363.7915515140952</v>
       </c>
       <c r="D19" t="n">
-        <v>274.9414612358547</v>
+        <v>363.7915515140952</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574644</v>
+        <v>215.8784579317021</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>215.8784579317021</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W19" t="n">
-        <v>1224.424878447885</v>
+        <v>812.5736815556427</v>
       </c>
       <c r="X19" t="n">
-        <v>996.4353275498672</v>
+        <v>584.5841306576253</v>
       </c>
       <c r="Y19" t="n">
-        <v>775.6427484063371</v>
+        <v>363.7915515140952</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2295.336172843073</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>663.098607412119</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>663.098607412119</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>663.098607412119</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>663.098607412119</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>248.0261572571155</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>3072.075344883006</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W20" t="n">
-        <v>3072.075344883006</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>3072.075344883006</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y20" t="n">
-        <v>2681.936012907195</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1761.128788747829</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C22" t="n">
-        <v>1761.128788747829</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D22" t="n">
-        <v>1761.128788747829</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E22" t="n">
-        <v>1761.128788747829</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F22" t="n">
-        <v>1632.526226578142</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G22" t="n">
         <v>1464.823389952861</v>
@@ -5908,7 +5910,7 @@
         <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
         <v>1713.933205348673</v>
@@ -5920,40 +5922,40 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193524</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.32286476305</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>2639.355643067495</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682807</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645846</v>
+        <v>2095.253984824648</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.128788747829</v>
+        <v>1867.264433926631</v>
       </c>
       <c r="Y22" t="n">
-        <v>1761.128788747829</v>
+        <v>1646.471854783101</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1246.723135529484</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C23" t="n">
-        <v>877.7606185890727</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D23" t="n">
-        <v>519.4949199823222</v>
+        <v>950.1045973369978</v>
       </c>
       <c r="E23" t="n">
-        <v>519.4949199823222</v>
+        <v>564.3163447387535</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>153.330439949146</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3080.759608444183</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V23" t="n">
-        <v>2749.696721100612</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>2396.928065830498</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X23" t="n">
-        <v>2023.462307569418</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y23" t="n">
-        <v>1633.322975593606</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1630.166666846771</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="C25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S25" t="n">
-        <v>3133.919937435996</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T25" t="n">
-        <v>2912.153322005523</v>
+        <v>2928.458509941853</v>
       </c>
       <c r="U25" t="n">
-        <v>2623.050455131166</v>
+        <v>2639.355643067496</v>
       </c>
       <c r="V25" t="n">
-        <v>2368.365966925279</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W25" t="n">
-        <v>2078.948796888319</v>
+        <v>2095.253984824649</v>
       </c>
       <c r="X25" t="n">
-        <v>1850.959245990301</v>
+        <v>1867.264433926632</v>
       </c>
       <c r="Y25" t="n">
-        <v>1630.166666846771</v>
+        <v>1646.471854783102</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926361</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F26" t="n">
-        <v>709.6157678926361</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G26" t="n">
-        <v>294.5433177376325</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>785.680167749271</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C28" t="n">
-        <v>616.7439848213642</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D28" t="n">
-        <v>466.6273454090284</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E28" t="n">
-        <v>318.7142518266353</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>266.0066360083342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6412,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>1705.527932658019</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W28" t="n">
-        <v>1416.110762621058</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X28" t="n">
-        <v>1188.121211723041</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y28" t="n">
-        <v>967.3286325795108</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1636.597933493125</v>
+        <v>1616.654488422266</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.635416552713</v>
+        <v>1247.691971481854</v>
       </c>
       <c r="D29" t="n">
-        <v>909.3697179459625</v>
+        <v>889.4262728751039</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>503.6380202768597</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>503.6380202768597</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>88.56557012185613</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6491,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V29" t="n">
-        <v>3139.571519064252</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W29" t="n">
-        <v>2786.802863794138</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X29" t="n">
-        <v>2413.337105533058</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.197773557246</v>
+        <v>2003.254328486388</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>827.0643955080135</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1861.97070162018</v>
+        <v>2214.386475689854</v>
       </c>
       <c r="C31" t="n">
-        <v>1693.034518692273</v>
+        <v>2045.450292761947</v>
       </c>
       <c r="D31" t="n">
-        <v>1542.917879279937</v>
+        <v>1895.333653349612</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.823389952861</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.823389952861</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952861</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q31" t="n">
         <v>3325.605821609171</v>
@@ -6646,25 +6648,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="U31" t="n">
-        <v>3036.502954734814</v>
+        <v>2844.817070561641</v>
       </c>
       <c r="V31" t="n">
-        <v>2781.818466528927</v>
+        <v>2844.817070561641</v>
       </c>
       <c r="W31" t="n">
-        <v>2492.401296491967</v>
+        <v>2844.817070561641</v>
       </c>
       <c r="X31" t="n">
-        <v>2264.411745593949</v>
+        <v>2616.827519663624</v>
       </c>
       <c r="Y31" t="n">
-        <v>2043.619166450419</v>
+        <v>2396.034940520094</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1133.303650087723</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>747.5153974894783</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>336.5294926998708</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.60582160917</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X32" t="n">
-        <v>3121.906610713899</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>725.9304417640992</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C34" t="n">
-        <v>556.9942588361923</v>
+        <v>529.639588403983</v>
       </c>
       <c r="D34" t="n">
-        <v>477.7578170212613</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="E34" t="n">
-        <v>477.7578170212613</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6886,22 +6888,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W34" t="n">
-        <v>1356.361036635886</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X34" t="n">
-        <v>1128.371485737869</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y34" t="n">
-        <v>907.5789065943389</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038042</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097631</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.40402049088</v>
+        <v>1133.303650087723</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926361</v>
+        <v>747.5153974894783</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030285</v>
+        <v>336.5294926998708</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6947,40 +6949,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102164</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="36">
@@ -7005,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1464.823389952861</v>
+        <v>1640.204086189707</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952861</v>
+        <v>1471.2679032618</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435996</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005523</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131166</v>
+        <v>2814.736339304341</v>
       </c>
       <c r="V37" t="n">
-        <v>2368.365966925279</v>
+        <v>2560.051851098454</v>
       </c>
       <c r="W37" t="n">
-        <v>2078.948796888319</v>
+        <v>2270.634681061494</v>
       </c>
       <c r="X37" t="n">
-        <v>1850.959245990301</v>
+        <v>2042.645130163476</v>
       </c>
       <c r="Y37" t="n">
-        <v>1630.166666846771</v>
+        <v>1821.852551019946</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796252</v>
+        <v>1969.423143692381</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392135</v>
+        <v>1600.46062675197</v>
       </c>
       <c r="D38" t="n">
-        <v>194.542240332463</v>
+        <v>1242.194928145219</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>856.4066755469748</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>445.4207707573673</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180638</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2746.162315732315</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2356.022983756503</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>333.710820256795</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C40" t="n">
-        <v>164.7746373288881</v>
+        <v>838.5106002518386</v>
       </c>
       <c r="D40" t="n">
-        <v>164.7746373288881</v>
+        <v>688.3939608395028</v>
       </c>
       <c r="E40" t="n">
-        <v>164.7746373288881</v>
+        <v>540.4808672571097</v>
       </c>
       <c r="F40" t="n">
-        <v>164.7746373288881</v>
+        <v>393.5909197591993</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>225.8880831339183</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>79.67089635177607</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.910120335303</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W40" t="n">
-        <v>782.4929502983425</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X40" t="n">
-        <v>554.5033994003252</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y40" t="n">
-        <v>333.710820256795</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1749.723851760223</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C41" t="n">
-        <v>1380.761334819811</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D41" t="n">
-        <v>1022.495636213061</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="E41" t="n">
-        <v>636.7073836148163</v>
+        <v>654.0504646744055</v>
       </c>
       <c r="F41" t="n">
-        <v>636.7073836148163</v>
+        <v>243.0645598847979</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>2866.097597267229</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W41" t="n">
-        <v>2513.328941997114</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X41" t="n">
-        <v>2139.863183736034</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y41" t="n">
-        <v>1749.723851760223</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1007.761086342349</v>
+        <v>496.577300874915</v>
       </c>
       <c r="C43" t="n">
-        <v>838.8249034144422</v>
+        <v>327.6411179470081</v>
       </c>
       <c r="D43" t="n">
-        <v>688.7082640021065</v>
+        <v>177.5244785346723</v>
       </c>
       <c r="E43" t="n">
-        <v>540.7951704197134</v>
+        <v>177.5244785346723</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>177.5244785346723</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7597,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="W43" t="n">
-        <v>1638.191681214136</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X43" t="n">
-        <v>1410.202130316119</v>
+        <v>899.0183448486848</v>
       </c>
       <c r="Y43" t="n">
-        <v>1189.409551172589</v>
+        <v>678.2257657051547</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796252</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1552.907897641584</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1194.642199034833</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>808.853946436589</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>397.8680416469815</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2698.609586621929</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>2308.470254646117</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>1930.093399075248</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>1761.157216147341</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>1611.040576735005</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>1611.040576735005</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1611.040576735005</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959802</v>
+        <v>1611.040576735005</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348675</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102585</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456658</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3296.311536363056</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>3104.625652189882</v>
       </c>
       <c r="T46" t="n">
-        <v>1735.608663915319</v>
+        <v>3104.625652189882</v>
       </c>
       <c r="U46" t="n">
-        <v>1446.505797040963</v>
+        <v>3104.625652189882</v>
       </c>
       <c r="V46" t="n">
-        <v>1446.505797040963</v>
+        <v>2849.941163983995</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.505797040963</v>
+        <v>2560.523993947035</v>
       </c>
       <c r="X46" t="n">
-        <v>1446.505797040963</v>
+        <v>2332.534443049018</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.262145272047</v>
+        <v>2111.741863905488</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621884</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019038</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>199.7516311504072</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P6" t="n">
-        <v>186.5911984019046</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.4490126143838</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>121.2896139681799</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>193.0504232358882</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,10 +22713,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -22723,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>110.0581317937695</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,7 +22767,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>204.3892689296799</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>183.7907424631441</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>169.3482969526774</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22951,16 +22953,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>49.76193847888763</v>
       </c>
       <c r="T7" t="n">
-        <v>100.415440530472</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23002,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>48.49455657151481</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>285.6012675181144</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23179,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,22 +23229,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>42.94025756838136</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>80.85095794181376</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23258,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>125.1061756880063</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>82.87897977084346</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>8.871374720975552</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>181.1251564493154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>103.0110774513655</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>126.4919521192246</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>106.1147195499628</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.15313017450472</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23969,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>49.33295317258319</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>114.9088639706377</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>18.10451147494071</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696546</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>324.9715853716606</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.597420925564705</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.55697697365639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>68.85687509492581</v>
+        <v>64.81119518318249</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76674224145211</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>43.60786094376959</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>272.7748452345445</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>143.5782989506658</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>69.12041821276375</v>
+        <v>127.3620454669741</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>185.1814529213689</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24974,13 +24976,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>70.17139562143065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.9000989394798751</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493168</v>
+        <v>143.604523148443</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25211,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696585</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>142.235404842364</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25360,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>296.757477183911</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>330.4099222588419</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.74591257129055</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>83.3252282894414</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>182.6131053028933</v>
+        <v>236.1348066353651</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>83.0140681584637</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>56.1235697775642</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>255.180547410985</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>82.87935969080348</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>59.93081027639199</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.07343810086849</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>764080.1352924888</v>
+        <v>764080.1352924891</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764080.135292489</v>
+        <v>764080.1352924891</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>764080.135292489</v>
+        <v>764080.1352924891</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842762.2200589039</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842762.2200589039</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842762.2200589037</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842762.2200589038</v>
+        <v>842762.2200589039</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842762.2200589038</v>
+        <v>842762.2200589039</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842762.2200589037</v>
+        <v>842762.2200589039</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842762.2200589038</v>
+        <v>842762.220058904</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>842762.2200589038</v>
+        <v>842762.2200589039</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842762.2200589037</v>
+        <v>842762.2200589038</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>321270.2120190239</v>
       </c>
       <c r="C2" t="n">
-        <v>321270.2120190237</v>
+        <v>321270.2120190239</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.2120190238</v>
+        <v>321270.212019024</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="F2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="I2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="L2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="M2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="O2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="L2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="M2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="N2" t="n">
-        <v>358046.9539194665</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>358046.9539194667</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>14971.45584523218</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14971.45584523219</v>
+      </c>
+      <c r="D4" t="n">
         <v>14971.45584523217</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14971.45584523218</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14971.45584523218</v>
       </c>
       <c r="E4" t="n">
         <v>7940.571207054552</v>
       </c>
       <c r="F4" t="n">
-        <v>7940.571207054552</v>
+        <v>7940.571207054564</v>
       </c>
       <c r="G4" t="n">
         <v>7940.571207054552</v>
       </c>
       <c r="H4" t="n">
-        <v>7940.571207054532</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="I4" t="n">
         <v>7940.571207054552</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26482,34 +26484,34 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-901390.7998419723</v>
+        <v>-901390.7998419729</v>
       </c>
       <c r="C6" t="n">
-        <v>213360.9837339468</v>
+        <v>213360.983733947</v>
       </c>
       <c r="D6" t="n">
-        <v>213360.9837339469</v>
+        <v>213360.9837339466</v>
       </c>
       <c r="E6" t="n">
-        <v>93727.06233382778</v>
+        <v>93727.06233382839</v>
       </c>
       <c r="F6" t="n">
-        <v>275800.0421510188</v>
+        <v>275800.042151019</v>
       </c>
       <c r="G6" t="n">
-        <v>275800.0421510188</v>
+        <v>275800.0421510189</v>
       </c>
       <c r="H6" t="n">
+        <v>275800.0421510186</v>
+      </c>
+      <c r="I6" t="n">
         <v>275800.0421510187</v>
       </c>
-      <c r="I6" t="n">
-        <v>275800.0421510186</v>
-      </c>
       <c r="J6" t="n">
-        <v>108194.8643410363</v>
+        <v>108194.8643410362</v>
       </c>
       <c r="K6" t="n">
-        <v>275800.0421510188</v>
+        <v>275800.0421510189</v>
       </c>
       <c r="L6" t="n">
-        <v>275800.0421510187</v>
+        <v>275800.0421510189</v>
       </c>
       <c r="M6" t="n">
-        <v>228247.7763576039</v>
+        <v>228247.776357604</v>
       </c>
       <c r="N6" t="n">
         <v>275800.0421510186</v>
       </c>
       <c r="O6" t="n">
+        <v>275800.0421510188</v>
+      </c>
+      <c r="P6" t="n">
         <v>275800.0421510189</v>
-      </c>
-      <c r="P6" t="n">
-        <v>275800.0421510187</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26771,13 +26773,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31676,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356356</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953979</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000385</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980268</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>590.9487307432811</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P6" t="n">
-        <v>436.2707275254369</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>484.1293732522342</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36138,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219371</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597632</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859626</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
